--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il6-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il6-Il6st.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.898632</v>
+        <v>14.956293</v>
       </c>
       <c r="H2">
-        <v>35.695896</v>
+        <v>44.868879</v>
       </c>
       <c r="I2">
-        <v>0.1819741108242693</v>
+        <v>0.195346866793292</v>
       </c>
       <c r="J2">
-        <v>0.1819741108242693</v>
+        <v>0.1953468667932919</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N2">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q2">
-        <v>523.7514013728561</v>
+        <v>1094.838202851723</v>
       </c>
       <c r="R2">
-        <v>4713.762612355705</v>
+        <v>9853.543825665507</v>
       </c>
       <c r="S2">
-        <v>0.04612746782713201</v>
+        <v>0.063778889033933</v>
       </c>
       <c r="T2">
-        <v>0.04612746782713201</v>
+        <v>0.063778889033933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.898632</v>
+        <v>14.956293</v>
       </c>
       <c r="H3">
-        <v>35.695896</v>
+        <v>44.868879</v>
       </c>
       <c r="I3">
-        <v>0.1819741108242693</v>
+        <v>0.195346866793292</v>
       </c>
       <c r="J3">
-        <v>0.1819741108242693</v>
+        <v>0.1953468667932919</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P3">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q3">
-        <v>1187.094190023067</v>
+        <v>1492.14872134735</v>
       </c>
       <c r="R3">
-        <v>10683.8477102076</v>
+        <v>13429.33849212615</v>
       </c>
       <c r="S3">
-        <v>0.1045489308754758</v>
+        <v>0.08692388288338389</v>
       </c>
       <c r="T3">
-        <v>0.1045489308754759</v>
+        <v>0.08692388288338387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.898632</v>
+        <v>14.956293</v>
       </c>
       <c r="H4">
-        <v>35.695896</v>
+        <v>44.868879</v>
       </c>
       <c r="I4">
-        <v>0.1819741108242693</v>
+        <v>0.195346866793292</v>
       </c>
       <c r="J4">
-        <v>0.1819741108242693</v>
+        <v>0.1953468667932919</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N4">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q4">
-        <v>226.2427980273413</v>
+        <v>591.3755842349741</v>
       </c>
       <c r="R4">
-        <v>2036.185182246072</v>
+        <v>5322.380258114767</v>
       </c>
       <c r="S4">
-        <v>0.01992549778343632</v>
+        <v>0.03445009286856961</v>
       </c>
       <c r="T4">
-        <v>0.01992549778343633</v>
+        <v>0.03445009286856961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.898632</v>
+        <v>14.956293</v>
       </c>
       <c r="H5">
-        <v>35.695896</v>
+        <v>44.868879</v>
       </c>
       <c r="I5">
-        <v>0.1819741108242693</v>
+        <v>0.195346866793292</v>
       </c>
       <c r="J5">
-        <v>0.1819741108242693</v>
+        <v>0.1953468667932919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N5">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O5">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P5">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q5">
-        <v>129.12508483404</v>
+        <v>174.991803819547</v>
       </c>
       <c r="R5">
-        <v>1162.12576350636</v>
+        <v>1574.926234375923</v>
       </c>
       <c r="S5">
-        <v>0.01137221433822508</v>
+        <v>0.01019400200740547</v>
       </c>
       <c r="T5">
-        <v>0.01137221433822508</v>
+        <v>0.01019400200740547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>150.13118</v>
       </c>
       <c r="I6">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="J6">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N6">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q6">
-        <v>2202.813900924647</v>
+        <v>3663.32645179766</v>
       </c>
       <c r="R6">
-        <v>19825.32510832182</v>
+        <v>32969.93806617894</v>
       </c>
       <c r="S6">
-        <v>0.1940046882504186</v>
+        <v>0.2134040360079738</v>
       </c>
       <c r="T6">
-        <v>0.1940046882504186</v>
+        <v>0.2134040360079739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>150.13118</v>
       </c>
       <c r="I7">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="J7">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>299.30185</v>
       </c>
       <c r="O7">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P7">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q7">
         <v>4992.726657409222</v>
@@ -883,10 +883,10 @@
         <v>44934.539916683</v>
       </c>
       <c r="S7">
-        <v>0.4397159370946627</v>
+        <v>0.290847139449689</v>
       </c>
       <c r="T7">
-        <v>0.4397159370946628</v>
+        <v>0.290847139449689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>150.13118</v>
       </c>
       <c r="I8">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="J8">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N8">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q8">
-        <v>951.5407102919177</v>
+        <v>1978.741530056636</v>
       </c>
       <c r="R8">
-        <v>8563.86639262726</v>
+        <v>17808.67377050972</v>
       </c>
       <c r="S8">
-        <v>0.08380342923216383</v>
+        <v>0.1152699423016104</v>
       </c>
       <c r="T8">
-        <v>0.08380342923216383</v>
+        <v>0.1152699423016104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>150.13118</v>
       </c>
       <c r="I9">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="J9">
-        <v>0.7653537534818657</v>
+        <v>0.653630228225219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N9">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O9">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P9">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q9">
-        <v>543.0792759407</v>
+        <v>585.5222279512955</v>
       </c>
       <c r="R9">
-        <v>4887.7134834663</v>
+        <v>5269.70005156166</v>
       </c>
       <c r="S9">
-        <v>0.04782969890462058</v>
+        <v>0.03410911046594571</v>
       </c>
       <c r="T9">
-        <v>0.04782969890462058</v>
+        <v>0.03410911046594572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.636126666666666</v>
+        <v>10.01531766666667</v>
       </c>
       <c r="H10">
-        <v>7.908379999999999</v>
+        <v>30.045953</v>
       </c>
       <c r="I10">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="J10">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N10">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O10">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P10">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q10">
-        <v>116.0364515738467</v>
+        <v>733.146401662661</v>
       </c>
       <c r="R10">
-        <v>1044.32806416462</v>
+        <v>6598.317614963948</v>
       </c>
       <c r="S10">
-        <v>0.01021948136600169</v>
+        <v>0.04270883394046386</v>
       </c>
       <c r="T10">
-        <v>0.01021948136600169</v>
+        <v>0.04270883394046387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.636126666666666</v>
+        <v>10.01531766666667</v>
       </c>
       <c r="H11">
-        <v>7.908379999999999</v>
+        <v>30.045953</v>
       </c>
       <c r="I11">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="J11">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>299.30185</v>
       </c>
       <c r="O11">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P11">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q11">
-        <v>262.9991960558889</v>
+        <v>999.2010353236723</v>
       </c>
       <c r="R11">
-        <v>2366.992764503</v>
+        <v>8992.80931791305</v>
       </c>
       <c r="S11">
-        <v>0.02316268161351085</v>
+        <v>0.05820762537195673</v>
       </c>
       <c r="T11">
-        <v>0.02316268161351086</v>
+        <v>0.05820762537195673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.636126666666666</v>
+        <v>10.01531766666667</v>
       </c>
       <c r="H12">
-        <v>7.908379999999999</v>
+        <v>30.045953</v>
       </c>
       <c r="I12">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="J12">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N12">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O12">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P12">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q12">
-        <v>50.1238018808511</v>
+        <v>396.0081777231736</v>
       </c>
       <c r="R12">
-        <v>451.11421692766</v>
+        <v>3564.073599508562</v>
       </c>
       <c r="S12">
-        <v>0.00441446849129581</v>
+        <v>0.02306912707078502</v>
       </c>
       <c r="T12">
-        <v>0.004414468491295811</v>
+        <v>0.02306912707078502</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.636126666666666</v>
+        <v>10.01531766666667</v>
       </c>
       <c r="H13">
-        <v>7.908379999999999</v>
+        <v>30.045953</v>
       </c>
       <c r="I13">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="J13">
-        <v>0.04031613097932699</v>
+        <v>0.1308118880876991</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N13">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O13">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P13">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q13">
-        <v>28.60749701869999</v>
+        <v>117.1813432857845</v>
       </c>
       <c r="R13">
-        <v>257.4674731683</v>
+        <v>1054.632089572061</v>
       </c>
       <c r="S13">
-        <v>0.002519499508518638</v>
+        <v>0.00682630170449345</v>
       </c>
       <c r="T13">
-        <v>0.002519499508518639</v>
+        <v>0.00682630170449345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8079146666666667</v>
+        <v>1.547411</v>
       </c>
       <c r="H14">
-        <v>2.423744</v>
+        <v>4.642232999999999</v>
       </c>
       <c r="I14">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="J14">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N14">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O14">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P14">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q14">
-        <v>35.56261247985067</v>
+        <v>113.274370749021</v>
       </c>
       <c r="R14">
-        <v>320.0635123186561</v>
+        <v>1019.469336741189</v>
       </c>
       <c r="S14">
-        <v>0.00313204558252871</v>
+        <v>0.00659870426842315</v>
       </c>
       <c r="T14">
-        <v>0.00313204558252871</v>
+        <v>0.00659870426842315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8079146666666667</v>
+        <v>1.547411</v>
       </c>
       <c r="H15">
-        <v>2.423744</v>
+        <v>4.642232999999999</v>
       </c>
       <c r="I15">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="J15">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>299.30185</v>
       </c>
       <c r="O15">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P15">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q15">
-        <v>80.60345145848889</v>
+        <v>154.3809916701166</v>
       </c>
       <c r="R15">
-        <v>725.4310631264001</v>
+        <v>1389.42892503105</v>
       </c>
       <c r="S15">
-        <v>0.007098850913165181</v>
+        <v>0.008993336285699934</v>
       </c>
       <c r="T15">
-        <v>0.007098850913165183</v>
+        <v>0.008993336285699932</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8079146666666667</v>
+        <v>1.547411</v>
       </c>
       <c r="H16">
-        <v>2.423744</v>
+        <v>4.642232999999999</v>
       </c>
       <c r="I16">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="J16">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N16">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O16">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P16">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q16">
-        <v>15.36183947482311</v>
+        <v>61.18501985596466</v>
       </c>
       <c r="R16">
-        <v>138.256555273408</v>
+        <v>550.6651787036819</v>
       </c>
       <c r="S16">
-        <v>0.001352937203190448</v>
+        <v>0.003564282449925671</v>
       </c>
       <c r="T16">
-        <v>0.001352937203190448</v>
+        <v>0.00356428244992567</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8079146666666667</v>
+        <v>1.547411</v>
       </c>
       <c r="H17">
-        <v>2.423744</v>
+        <v>4.642232999999999</v>
       </c>
       <c r="I17">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="J17">
-        <v>0.01235600471453799</v>
+        <v>0.0202110168937901</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N17">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O17">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P17">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q17">
-        <v>8.767566714560001</v>
+        <v>18.10503726693566</v>
       </c>
       <c r="R17">
-        <v>78.90810043104001</v>
+        <v>162.945335402421</v>
       </c>
       <c r="S17">
-        <v>0.0007721710156536484</v>
+        <v>0.001054693889741349</v>
       </c>
       <c r="T17">
-        <v>0.0007721710156536485</v>
+        <v>0.001054693889741349</v>
       </c>
     </row>
   </sheetData>
